--- a/app2.xlsx
+++ b/app2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
   </bookViews>
   <sheets>
     <sheet name="параметры программ" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'параметры программ'!$B$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="224">
   <si>
     <t xml:space="preserve"> Программа повышения квалификации "Центровка и контроль загрузки воздушных судов. Базовый курс"</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>ИАС, 202</t>
-  </si>
-  <si>
-    <t>БАТО, 213</t>
   </si>
   <si>
     <t>Аудитрия</t>
@@ -374,28 +371,10 @@
     <t>кроме Подготовка преподавателей АУЦ</t>
   </si>
   <si>
-    <t>на практические занятия необходима аудитория БАТО,213</t>
-  </si>
-  <si>
-    <t>желателен  414б</t>
-  </si>
-  <si>
-    <t>желателен 414б</t>
-  </si>
-  <si>
-    <t>необходима аудитория  без парт: 414б-1 или 416аб</t>
-  </si>
-  <si>
-    <t>аудитория БАТО,213</t>
-  </si>
-  <si>
     <t>Организация наземного обслуживания;
 Центровка и контроль загрузки</t>
   </si>
   <si>
-    <t>аудитория 105,106,107</t>
-  </si>
-  <si>
     <t>График работы</t>
   </si>
   <si>
@@ -769,12 +748,24 @@
   <si>
     <t>может читать не более 2 дней подряд,
 затем необходим выходной</t>
+  </si>
+  <si>
+    <t>414б-1 416а,б</t>
+  </si>
+  <si>
+    <t>БАТО 213</t>
+  </si>
+  <si>
+    <t>105,106,107</t>
+  </si>
+  <si>
+    <t>БАТО</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1399,7 +1390,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="22" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1448,6 +1439,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,11 +1463,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1879,40 +1873,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="4" width="71.5703125" customWidth="1"/>
-    <col min="5" max="14" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="4" width="71.5546875" customWidth="1"/>
+    <col min="5" max="14" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>32</v>
@@ -1921,7 +1915,7 @@
         <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>29</v>
@@ -1936,18 +1930,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>72</v>
+      <c r="B2" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
@@ -1981,16 +1975,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4">
         <v>64</v>
@@ -2024,18 +2018,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>80</v>
+      <c r="B4" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
@@ -2069,16 +2063,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -2112,18 +2106,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>76</v>
+      <c r="B6" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
@@ -2157,16 +2151,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
@@ -2200,18 +2194,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
@@ -2245,16 +2239,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4">
         <v>16</v>
@@ -2288,16 +2282,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4">
         <v>16</v>
@@ -2331,16 +2325,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
@@ -2374,16 +2368,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
@@ -2417,16 +2411,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
@@ -2460,18 +2454,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
+      <c r="B14" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4">
         <v>16</v>
@@ -2505,16 +2499,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
@@ -2548,18 +2542,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>74</v>
+      <c r="B16" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E16" s="4">
         <v>72</v>
@@ -2593,16 +2587,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="E17" s="4">
         <v>32</v>
@@ -2636,18 +2630,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>78</v>
+      <c r="B18" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="E18" s="4">
         <v>16</v>
@@ -2681,16 +2675,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="4">
         <v>16</v>
@@ -2724,16 +2718,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4">
         <v>16</v>
@@ -2767,16 +2761,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -2810,7 +2804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2845,18 +2839,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E23" s="4">
         <v>33</v>
@@ -2886,16 +2880,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E24" s="7">
         <v>27</v>
@@ -2925,16 +2919,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E25" s="4">
         <v>74</v>
@@ -2964,16 +2958,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E26" s="7">
         <v>67</v>
@@ -3003,16 +2997,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E27" s="4">
         <v>74</v>
@@ -3042,16 +3036,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E28" s="7">
         <v>67</v>
@@ -3081,16 +3075,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E29" s="4">
         <v>29.5</v>
@@ -3120,16 +3114,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>223</v>
       </c>
       <c r="E30" s="4">
         <v>25.5</v>
@@ -3159,18 +3153,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>69</v>
+      <c r="B31" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>198</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>222</v>
       </c>
       <c r="E31" s="9">
         <v>144</v>
@@ -3203,16 +3197,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E32" s="9">
         <v>82</v>
@@ -3245,16 +3239,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="9" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E33" s="9">
         <v>42</v>
@@ -3287,16 +3281,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E34" s="9">
         <v>144</v>
@@ -3329,16 +3323,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E35" s="9">
         <v>82</v>
@@ -3371,16 +3365,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="9" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E36" s="9">
         <v>42</v>
@@ -3413,16 +3407,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="24"/>
       <c r="C37" s="9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E37" s="9">
         <v>144</v>
@@ -3455,16 +3449,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E38" s="9">
         <v>82</v>
@@ -3497,16 +3491,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="E39" s="9">
         <v>42</v>
@@ -3539,16 +3533,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E40" s="9">
         <v>16</v>
@@ -3582,15 +3576,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>54</v>
@@ -3690,40 +3684,40 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="5" max="5" width="37.44140625" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="D1" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>105</v>
       </c>
@@ -3731,19 +3725,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>106</v>
       </c>
@@ -3751,19 +3745,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>107</v>
       </c>
@@ -3771,19 +3765,19 @@
         <v>24</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -3791,19 +3785,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
@@ -3811,19 +3805,19 @@
         <v>32</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>90</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -3831,19 +3825,19 @@
         <v>18</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>422</v>
       </c>
@@ -3851,19 +3845,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>3091</v>
       </c>
@@ -3871,19 +3865,19 @@
         <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>54</v>
       </c>
@@ -3891,19 +3885,19 @@
         <v>20</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>55</v>
       </c>
@@ -3911,36 +3905,36 @@
         <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="B12" s="15">
         <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3953,930 +3947,931 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" customWidth="1"/>
+    <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="6" width="70.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E2" s="19">
+        <v>2</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="19">
-        <v>2</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E4" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E5" s="19">
         <v>2</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E6" s="19">
         <v>3</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E7" s="19">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="19" t="s">
+      <c r="C12" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>117</v>
-      </c>
       <c r="B15" s="19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="F15" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="F21" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="G21" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="19">
         <v>40</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="19">
         <v>40</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="19">
         <v>40</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="19">
         <v>40</v>
       </c>
       <c r="E25" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="D32" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="26" t="s">
+      <c r="F32" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="19" t="s">
+      <c r="D33" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="19">
-        <v>2</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="B34" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E35" s="19">
         <v>1</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>73</v>
+      <c r="F35" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/app2.xlsx
+++ b/app2.xlsx
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="0" shapeId="0">
+    <comment ref="L30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t xml:space="preserve"> Программа повышения квалификации "Центровка и контроль загрузки воздушных судов. Базовый курс"</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Программа повышения квалификации "Организация и контроль противообледенительной защиты воздушных судов (категория по SAE AS6286А DI-L30B)"</t>
-  </si>
-  <si>
-    <t>Программа повышения квалификации «Спасание и борьба с пожаром на воздушных судах и объектах аэропорта»</t>
   </si>
   <si>
     <t>Программа начальной подготовки водителей спецтранспорта без права подъезда к воздушному в контролируемой зоне аэродрома «Пулково»</t>
@@ -751,9 +748,6 @@
   </si>
   <si>
     <t>414б-1 416а,б</t>
-  </si>
-  <si>
-    <t>БАТО 213</t>
   </si>
   <si>
     <t>105,106,107</t>
@@ -1390,7 +1384,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="22" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1406,9 +1400,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,6 +1436,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,9 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1871,11 +1862,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1890,44 +1881,44 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1935,25 +1926,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4">
         <v>10</v>
@@ -1984,19 +1975,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="4">
         <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4">
         <v>8</v>
@@ -2023,25 +2014,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4">
         <v>5</v>
@@ -2072,19 +2063,19 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -2111,25 +2102,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -2160,19 +2151,19 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -2199,25 +2190,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
@@ -2248,19 +2239,19 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -2291,19 +2282,19 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4">
         <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -2334,16 +2325,16 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4">
         <v>8</v>
@@ -2377,16 +2368,16 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -2420,16 +2411,16 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -2459,25 +2450,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2508,19 +2499,19 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4">
         <v>4</v>
@@ -2547,13 +2538,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4">
         <v>72</v>
@@ -2583,7 +2574,7 @@
       <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2593,10 +2584,10 @@
       </c>
       <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="4">
         <v>32</v>
@@ -2635,7 +2626,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -2684,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4">
         <v>16</v>
@@ -2708,7 +2699,7 @@
         <v>54</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:L30" si="1">J19*15-K19</f>
+        <f t="shared" ref="L19:L29" si="1">J19*15-K19</f>
         <v>21</v>
       </c>
       <c r="M19" s="4">
@@ -2727,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>16</v>
@@ -2770,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -2804,306 +2795,310 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="E22" s="4">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>24</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
       <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" s="4">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4">
+        <v>221</v>
+      </c>
+      <c r="E23" s="6">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
         <v>24</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="12">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4">
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" s="6">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E24" s="7">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12">
+        <v>221</v>
+      </c>
+      <c r="E24" s="4">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <v>64</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="4">
-        <v>74</v>
-      </c>
-      <c r="F25" s="5">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4">
+        <v>221</v>
+      </c>
+      <c r="E25" s="6">
+        <v>67</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>64</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="12">
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="7">
-        <v>67</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
+        <v>221</v>
+      </c>
+      <c r="E26" s="4">
+        <v>74</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
         <v>64</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="7" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E27" s="4">
-        <v>74</v>
-      </c>
-      <c r="F27" s="5">
-        <v>8</v>
-      </c>
-      <c r="G27" s="4">
+        <v>221</v>
+      </c>
+      <c r="E27" s="6">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
         <v>64</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="12">
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4">
-        <v>2</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="6">
+        <v>2</v>
+      </c>
+      <c r="N27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="7">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7">
+        <v>221</v>
+      </c>
+      <c r="E28" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
-        <v>64</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="12">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="7">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="27"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="28"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E29" s="4">
-        <v>29.5</v>
+        <v>25.5</v>
       </c>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>25.5</v>
       </c>
       <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3114,526 +3109,487 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="F30" s="4">
+        <v>30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="8">
+        <v>144</v>
+      </c>
+      <c r="F30" s="8">
+        <v>24</v>
+      </c>
+      <c r="G30" s="8">
+        <v>120</v>
+      </c>
+      <c r="H30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="I30" s="8">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8">
+        <v>18</v>
+      </c>
+      <c r="K30" s="8">
+        <v>414</v>
+      </c>
+      <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>2</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
+      <c r="M30" s="8">
+        <v>8</v>
+      </c>
+      <c r="N30" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="E31" s="9">
-        <v>144</v>
-      </c>
-      <c r="F31" s="9">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9">
-        <v>120</v>
-      </c>
-      <c r="H31" s="9">
+      <c r="D31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="8">
+        <v>82</v>
+      </c>
+      <c r="F31" s="8">
+        <v>28</v>
+      </c>
+      <c r="G31" s="8">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8">
+        <v>26</v>
+      </c>
+      <c r="I31" s="8">
+        <v>7</v>
+      </c>
+      <c r="J31" s="8">
+        <v>18</v>
+      </c>
+      <c r="K31" s="8">
+        <v>414</v>
+      </c>
+      <c r="L31" s="8">
         <v>0</v>
       </c>
-      <c r="I31" s="9">
-        <v>23</v>
-      </c>
-      <c r="J31" s="9">
-        <v>18</v>
-      </c>
-      <c r="K31" s="9">
-        <v>414</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>8</v>
       </c>
-      <c r="N31" s="9">
-        <v>4</v>
+      <c r="N31" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="24"/>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E32" s="9">
-        <v>82</v>
-      </c>
-      <c r="F32" s="9">
-        <v>28</v>
-      </c>
-      <c r="G32" s="9">
-        <v>28</v>
-      </c>
-      <c r="H32" s="9">
+        <v>220</v>
+      </c>
+      <c r="E32" s="8">
+        <v>42</v>
+      </c>
+      <c r="F32" s="8">
+        <v>16</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>26</v>
       </c>
-      <c r="I32" s="9">
-        <v>7</v>
-      </c>
-      <c r="J32" s="9">
-        <v>18</v>
-      </c>
-      <c r="K32" s="9">
-        <v>414</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="I32" s="8">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>22</v>
+      </c>
+      <c r="K32" s="8">
+        <v>300</v>
+      </c>
+      <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>8</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="24"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" s="9">
-        <v>42</v>
-      </c>
-      <c r="F33" s="9">
-        <v>16</v>
-      </c>
-      <c r="G33" s="9">
+        <v>220</v>
+      </c>
+      <c r="E33" s="8">
+        <v>144</v>
+      </c>
+      <c r="F33" s="8">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8">
+        <v>120</v>
+      </c>
+      <c r="H33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9">
-        <v>2</v>
-      </c>
-      <c r="J33" s="9">
-        <v>22</v>
-      </c>
-      <c r="K33" s="9">
-        <v>300</v>
-      </c>
-      <c r="L33" s="9">
+      <c r="I33" s="8">
+        <v>23</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+      <c r="K33" s="8">
+        <v>40</v>
+      </c>
+      <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="M33" s="9">
-        <v>8</v>
-      </c>
-      <c r="N33" s="9">
+      <c r="M33" s="8">
+        <v>10</v>
+      </c>
+      <c r="N33" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="24"/>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E34" s="9">
-        <v>144</v>
-      </c>
-      <c r="F34" s="9">
-        <v>24</v>
-      </c>
-      <c r="G34" s="9">
-        <v>120</v>
-      </c>
-      <c r="H34" s="9">
+        <v>220</v>
+      </c>
+      <c r="E34" s="8">
+        <v>82</v>
+      </c>
+      <c r="F34" s="8">
+        <v>28</v>
+      </c>
+      <c r="G34" s="8">
+        <v>28</v>
+      </c>
+      <c r="H34" s="8">
+        <v>26</v>
+      </c>
+      <c r="I34" s="8">
+        <v>7</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>40</v>
+      </c>
+      <c r="L34" s="8">
         <v>0</v>
       </c>
-      <c r="I34" s="9">
-        <v>23</v>
-      </c>
-      <c r="J34" s="9">
-        <v>4</v>
-      </c>
-      <c r="K34" s="9">
-        <v>40</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>10</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="24"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" s="9">
-        <v>82</v>
-      </c>
-      <c r="F35" s="9">
-        <v>28</v>
-      </c>
-      <c r="G35" s="9">
-        <v>28</v>
-      </c>
-      <c r="H35" s="9">
+        <v>220</v>
+      </c>
+      <c r="E35" s="8">
+        <v>42</v>
+      </c>
+      <c r="F35" s="8">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>26</v>
       </c>
-      <c r="I35" s="9">
-        <v>7</v>
-      </c>
-      <c r="J35" s="9">
-        <v>2</v>
-      </c>
-      <c r="K35" s="9">
-        <v>40</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="I35" s="8">
+        <v>2</v>
+      </c>
+      <c r="J35" s="8">
+        <v>9</v>
+      </c>
+      <c r="K35" s="8">
+        <v>94</v>
+      </c>
+      <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>10</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="24"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E36" s="9">
-        <v>42</v>
-      </c>
-      <c r="F36" s="9">
-        <v>16</v>
-      </c>
-      <c r="G36" s="9">
+        <v>220</v>
+      </c>
+      <c r="E36" s="8">
+        <v>144</v>
+      </c>
+      <c r="F36" s="8">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8">
+        <v>120</v>
+      </c>
+      <c r="H36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="9">
-        <v>26</v>
-      </c>
-      <c r="I36" s="9">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9">
-        <v>9</v>
-      </c>
-      <c r="K36" s="9">
-        <v>94</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="I36" s="8">
+        <v>23</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>15</v>
+      </c>
+      <c r="L36" s="8">
         <v>0</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>10</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="24"/>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="9">
-        <v>144</v>
-      </c>
-      <c r="F37" s="9">
-        <v>24</v>
-      </c>
-      <c r="G37" s="9">
-        <v>120</v>
-      </c>
-      <c r="H37" s="9">
+        <v>220</v>
+      </c>
+      <c r="E37" s="8">
+        <v>82</v>
+      </c>
+      <c r="F37" s="8">
+        <v>28</v>
+      </c>
+      <c r="G37" s="8">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8">
+        <v>26</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>15</v>
+      </c>
+      <c r="L37" s="8">
         <v>0</v>
       </c>
-      <c r="I37" s="9">
-        <v>23</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="9">
-        <v>15</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>10</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>205</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E38" s="9">
-        <v>82</v>
-      </c>
-      <c r="F38" s="9">
-        <v>28</v>
-      </c>
-      <c r="G38" s="9">
-        <v>28</v>
-      </c>
-      <c r="H38" s="9">
+        <v>220</v>
+      </c>
+      <c r="E38" s="8">
+        <v>42</v>
+      </c>
+      <c r="F38" s="8">
+        <v>16</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
         <v>26</v>
       </c>
-      <c r="I38" s="9">
-        <v>7</v>
-      </c>
-      <c r="J38" s="9">
-        <v>2</v>
-      </c>
-      <c r="K38" s="9">
-        <v>15</v>
-      </c>
-      <c r="L38" s="9">
+      <c r="I38" s="8">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="8">
+        <v>86</v>
+      </c>
+      <c r="L38" s="8">
         <v>0</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>10</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="24"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" s="9">
-        <v>42</v>
-      </c>
-      <c r="F39" s="9">
+        <v>71</v>
+      </c>
+      <c r="E39" s="8">
         <v>16</v>
       </c>
-      <c r="G39" s="9">
+      <c r="F39" s="8">
+        <v>8</v>
+      </c>
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="9">
-        <v>26</v>
-      </c>
-      <c r="I39" s="9">
-        <v>2</v>
-      </c>
-      <c r="J39" s="9">
-        <v>6</v>
-      </c>
-      <c r="K39" s="9">
-        <v>86</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="H39" s="8">
+        <v>8</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>25</v>
+      </c>
+      <c r="K39" s="8">
+        <v>472</v>
+      </c>
+      <c r="L39" s="8">
+        <f>J39*23-K39</f>
+        <v>103</v>
+      </c>
+      <c r="M39" s="8">
+        <v>2</v>
+      </c>
+      <c r="N39" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>40</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8">
+        <v>136</v>
+      </c>
+      <c r="F40" s="8">
+        <v>24</v>
+      </c>
+      <c r="G40" s="8">
+        <v>120</v>
+      </c>
+      <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="M39" s="9">
-        <v>10</v>
-      </c>
-      <c r="N39" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="9">
-        <v>16</v>
-      </c>
-      <c r="F40" s="9">
-        <v>8</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="I40" s="8">
+        <v>30</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>64</v>
+      </c>
+      <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
-        <v>8</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1</v>
-      </c>
-      <c r="J40" s="9">
-        <v>25</v>
-      </c>
-      <c r="K40" s="9">
-        <v>472</v>
-      </c>
-      <c r="L40" s="9">
-        <f>J40*23-K40</f>
-        <v>103</v>
-      </c>
-      <c r="M40" s="9">
-        <v>2</v>
-      </c>
-      <c r="N40" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="9">
-        <v>136</v>
-      </c>
-      <c r="F41" s="9">
-        <v>24</v>
-      </c>
-      <c r="G41" s="9">
-        <v>120</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0</v>
-      </c>
-      <c r="I41" s="9">
-        <v>30</v>
-      </c>
-      <c r="J41" s="9">
-        <v>2</v>
-      </c>
-      <c r="K41" s="9">
-        <v>64</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
+      <c r="M40" s="8">
         <v>4</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N40" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:N1"/>
   <mergeCells count="9">
-    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B30:B39"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="E16:K22 J2:K15 M2:N15">
+  <conditionalFormatting sqref="E16:K21 J2:K15 M2:N15">
     <cfRule type="containsBlanks" dxfId="7" priority="13">
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
@@ -3648,11 +3604,6 @@
       <formula>LEN(TRIM(M18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(M22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(N16))=0</formula>
@@ -3663,14 +3614,9 @@
       <formula>LEN(TRIM(N18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
-      <formula>LEN(TRIM(N22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:I30">
+  <conditionalFormatting sqref="E29:I29">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,7 +3630,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3698,243 +3644,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>105</v>
+      </c>
+      <c r="B2" s="14">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>106</v>
+      </c>
+      <c r="B3" s="14">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>107</v>
+      </c>
+      <c r="B4" s="14">
+        <v>24</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14">
+        <v>32</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>422</v>
+      </c>
+      <c r="B8" s="14">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>3091</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D9" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="14">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="15">
-        <v>105</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="E10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="14">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="14">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
-        <v>106</v>
-      </c>
-      <c r="B3" s="15">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15">
-        <v>107</v>
-      </c>
-      <c r="B4" s="15">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="15">
-        <v>32</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15">
-        <v>422</v>
-      </c>
-      <c r="B8" s="15">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
-        <v>3091</v>
-      </c>
-      <c r="B9" s="15">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="15">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="15">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="15">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>66</v>
+      <c r="D12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3948,7 +3894,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3965,913 +3911,913 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="18">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="18">
+        <v>40</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="18">
+        <v>40</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="18">
+        <v>40</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="18">
+        <v>40</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G29" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="D30" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="19">
-        <v>2</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D32" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="19">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="F34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="18">
         <v>1</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="F35" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="19">
-        <v>40</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="19">
-        <v>40</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="19">
-        <v>40</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="19">
-        <v>40</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="19">
-        <v>2</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="20" t="s">
-        <v>72</v>
+      <c r="H35" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/app2.xlsx
+++ b/app2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="параметры программ" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>ГАСС</t>
   </si>
   <si>
-    <t>ИАС, 202</t>
-  </si>
-  <si>
     <t>Аудитрия</t>
   </si>
   <si>
@@ -754,6 +751,9 @@
   </si>
   <si>
     <t>БАТО</t>
+  </si>
+  <si>
+    <t>ИАС</t>
   </si>
 </sst>
 </file>
@@ -1864,9 +1864,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,22 +1882,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -1906,7 +1906,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>28</v>
@@ -1926,13 +1926,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
@@ -1975,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4">
         <v>64</v>
@@ -2014,13 +2014,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
@@ -2063,7 +2063,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
@@ -2102,13 +2102,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
@@ -2151,7 +2151,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
@@ -2196,7 +2196,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
@@ -2239,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4">
         <v>16</v>
@@ -2282,7 +2282,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="4">
         <v>16</v>
@@ -2325,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
@@ -2368,7 +2368,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
@@ -2450,13 +2450,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="4">
         <v>16</v>
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
@@ -2538,7 +2538,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -2626,13 +2626,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="4">
         <v>16</v>
@@ -2675,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="4">
         <v>16</v>
@@ -2718,7 +2718,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="4">
         <v>16</v>
@@ -2761,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -2806,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E22" s="4">
         <v>33</v>
@@ -2845,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E23" s="6">
         <v>27</v>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E24" s="4">
         <v>74</v>
@@ -2923,7 +2923,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E25" s="6">
         <v>67</v>
@@ -2962,7 +2962,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E26" s="4">
         <v>74</v>
@@ -3001,7 +3001,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="6">
         <v>67</v>
@@ -3040,7 +3040,7 @@
         <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E28" s="4">
         <v>29.5</v>
@@ -3079,7 +3079,7 @@
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E29" s="4">
         <v>25.5</v>
@@ -3114,13 +3114,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E30" s="8">
         <v>144</v>
@@ -3159,10 +3159,10 @@
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E31" s="8">
         <v>82</v>
@@ -3201,10 +3201,10 @@
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E32" s="8">
         <v>42</v>
@@ -3243,10 +3243,10 @@
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E33" s="8">
         <v>144</v>
@@ -3285,10 +3285,10 @@
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E34" s="8">
         <v>82</v>
@@ -3327,10 +3327,10 @@
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E35" s="8">
         <v>42</v>
@@ -3369,10 +3369,10 @@
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E36" s="8">
         <v>144</v>
@@ -3411,10 +3411,10 @@
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E37" s="8">
         <v>82</v>
@@ -3453,10 +3453,10 @@
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E38" s="8">
         <v>42</v>
@@ -3495,10 +3495,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8">
         <v>16</v>
@@ -3537,10 +3537,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>53</v>
@@ -3629,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3645,22 +3645,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="D1" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3671,16 +3671,16 @@
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3691,16 +3691,16 @@
         <v>20</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -3711,16 +3711,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -3731,16 +3731,16 @@
         <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3751,16 +3751,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3771,16 +3771,16 @@
         <v>18</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3791,16 +3791,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
@@ -3811,16 +3811,16 @@
         <v>20</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3831,56 +3831,56 @@
         <v>20</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
       <c r="B11" s="14">
         <v>20</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B12" s="14">
         <v>18</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3912,912 +3912,912 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>176</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>104</v>
-      </c>
       <c r="C2" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="18">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="18">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>130</v>
-      </c>
       <c r="C3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="18">
         <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="18">
         <v>1</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>154</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="18">
         <v>2</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="C6" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" s="18">
         <v>3</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="18">
         <v>2</v>
       </c>
       <c r="F7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="H7" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>136</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>186</v>
-      </c>
       <c r="F9" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="F11" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>146</v>
-      </c>
       <c r="C12" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="G12" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>150</v>
-      </c>
       <c r="C13" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>102</v>
-      </c>
       <c r="C14" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="C15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="18">
         <v>2</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>112</v>
-      </c>
       <c r="C16" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>128</v>
-      </c>
       <c r="C17" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="C18" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>144</v>
-      </c>
       <c r="C19" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>148</v>
-      </c>
       <c r="C20" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="H20" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>166</v>
-      </c>
       <c r="C21" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="G21" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>217</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="C22" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="18">
         <v>40</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>108</v>
-      </c>
       <c r="C23" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23" s="18">
         <v>40</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="H23" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>116</v>
-      </c>
       <c r="C24" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="18">
         <v>40</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="H24" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="C25" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="18">
         <v>40</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>168</v>
-      </c>
       <c r="H25" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="C26" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="F26" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>120</v>
-      </c>
       <c r="C27" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="F27" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="C28" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="F28" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="C29" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>138</v>
-      </c>
       <c r="C30" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>156</v>
-      </c>
       <c r="C31" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D31" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>191</v>
-      </c>
       <c r="F31" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>142</v>
-      </c>
       <c r="C32" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E32" s="18">
         <v>1</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="C33" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="18">
         <v>2</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>160</v>
-      </c>
       <c r="C34" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="18">
         <v>1</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>162</v>
-      </c>
       <c r="C35" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" s="18">
         <v>1</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
